--- a/inputs/elev_calib_empty.xlsx
+++ b/inputs/elev_calib_empty.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E8C4CB-1AA6-4020-8936-E4C3628C03DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23ADD15-BE05-4D11-B928-796FA506AB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="25" r:id="rId1"/>
+    <sheet name="Eagle" sheetId="25" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -396,6 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F93746C-0038-480A-954D-9FA4BDD9391F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/inputs/elev_calib_empty.xlsx
+++ b/inputs/elev_calib_empty.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23ADD15-BE05-4D11-B928-796FA506AB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD401F2B-AF39-4714-A54F-F00CFD4831AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" tabRatio="777" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="25" r:id="rId1"/>
+    <sheet name="CHB-03" sheetId="26" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,12 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>calib_wse_ft</t>
+    <t>elev_ft</t>
   </si>
 </sst>
 </file>
@@ -399,8 +400,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,4 +457,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DFB95-E28C-4257-8A9E-43EA9F8CBDBE}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputs/elev_calib_empty.xlsx
+++ b/inputs/elev_calib_empty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT_1.3\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD401F2B-AF39-4714-A54F-F00CFD4831AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB50D64-6DFC-4F8F-B17F-36E9E082A0EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="26610" windowHeight="16440" tabRatio="777" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="12900" windowHeight="12000" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eagle" sheetId="25" r:id="rId1"/>
@@ -75,14 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F93746C-0038-480A-954D-9FA4BDD9391F}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,42 +413,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -463,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75DFB95-E28C-4257-8A9E-43EA9F8CBDBE}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
